--- a/BI PROJECT/Data/NumberOfPrisoners/Prisoners_Data.xlsx
+++ b/BI PROJECT/Data/NumberOfPrisoners/Prisoners_Data.xlsx
@@ -566,11 +566,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5033</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>2013</v>
@@ -602,11 +602,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>5033</v>
       </c>
       <c r="C10" t="n">
         <v>2013</v>
@@ -638,11 +638,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6200</v>
+        <v>156</v>
       </c>
       <c r="C12" t="n">
         <v>2014</v>
@@ -656,11 +656,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156</v>
+        <v>6200</v>
       </c>
       <c r="C13" t="n">
         <v>2014</v>
@@ -782,11 +782,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58</v>
+        <v>350</v>
       </c>
       <c r="C20" t="n">
         <v>2017</v>
@@ -800,11 +800,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>350</v>
+        <v>6171</v>
       </c>
       <c r="C21" t="n">
         <v>2017</v>
@@ -818,11 +818,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6171</v>
+        <v>58</v>
       </c>
       <c r="C22" t="n">
         <v>2017</v>
@@ -836,11 +836,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5500</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
         <v>2018</v>
@@ -854,11 +854,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>230</v>
+        <v>5500</v>
       </c>
       <c r="C24" t="n">
         <v>2018</v>
@@ -872,11 +872,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
@@ -890,11 +890,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5000</v>
+        <v>185</v>
       </c>
       <c r="C26" t="n">
         <v>2019</v>
@@ -908,11 +908,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>185</v>
+        <v>5000</v>
       </c>
       <c r="C27" t="n">
         <v>2019</v>
@@ -944,11 +944,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170</v>
+        <v>4400</v>
       </c>
       <c r="C29" t="n">
         <v>2020</v>
@@ -962,11 +962,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="C30" t="n">
         <v>2020</v>
@@ -980,11 +980,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4400</v>
+        <v>41</v>
       </c>
       <c r="C31" t="n">
         <v>2020</v>

--- a/BI PROJECT/Data/NumberOfPrisoners/Prisoners_Data.xlsx
+++ b/BI PROJECT/Data/NumberOfPrisoners/Prisoners_Data.xlsx
@@ -512,11 +512,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4656</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>2012</v>
@@ -548,11 +548,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>4656</v>
       </c>
       <c r="C7" t="n">
         <v>2012</v>
@@ -566,11 +566,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>5033</v>
       </c>
       <c r="C8" t="n">
         <v>2013</v>
@@ -602,11 +602,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5033</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>2013</v>
@@ -620,11 +620,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="C11" t="n">
         <v>2014</v>
@@ -638,11 +638,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156</v>
+        <v>6200</v>
       </c>
       <c r="C12" t="n">
         <v>2014</v>
@@ -656,11 +656,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6200</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>2014</v>
@@ -782,11 +782,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>2017</v>
@@ -800,11 +800,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6171</v>
+        <v>350</v>
       </c>
       <c r="C21" t="n">
         <v>2017</v>
@@ -818,11 +818,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58</v>
+        <v>6171</v>
       </c>
       <c r="C22" t="n">
         <v>2017</v>
@@ -836,11 +836,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54</v>
+        <v>5500</v>
       </c>
       <c r="C23" t="n">
         <v>2018</v>
@@ -854,11 +854,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5500</v>
+        <v>230</v>
       </c>
       <c r="C24" t="n">
         <v>2018</v>
@@ -872,11 +872,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>230</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
@@ -944,11 +944,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4400</v>
+        <v>170</v>
       </c>
       <c r="C29" t="n">
         <v>2020</v>
@@ -962,11 +962,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>170</v>
+        <v>4400</v>
       </c>
       <c r="C30" t="n">
         <v>2020</v>
